--- a/doors-detector/results/house20_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
+++ b/doors-detector/results/house20_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7056354820667829</v>
+        <v>0.6862999983443339</v>
       </c>
       <c r="F2" t="n">
         <v>870</v>
       </c>
       <c r="G2" t="n">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="H2" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4374630174469971</v>
+        <v>0.4132129456540882</v>
       </c>
       <c r="F3" t="n">
         <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6083730108816564</v>
+        <v>0.6008962936209675</v>
       </c>
       <c r="F4" t="n">
         <v>91</v>
       </c>
       <c r="G4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.744228633963627</v>
+        <v>0.740735759864407</v>
       </c>
       <c r="F5" t="n">
         <v>870</v>
       </c>
       <c r="G5" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H5" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5483385589317351</v>
+        <v>0.6101880252473627</v>
       </c>
       <c r="F6" t="n">
         <v>65</v>
@@ -632,7 +632,7 @@
         <v>49</v>
       </c>
       <c r="H6" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6376036239807373</v>
+        <v>0.6317324416847482</v>
       </c>
       <c r="F7" t="n">
         <v>91</v>
       </c>
       <c r="G7" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" t="n">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7254369777340441</v>
+        <v>0.7770432787484501</v>
       </c>
       <c r="F8" t="n">
         <v>870</v>
       </c>
       <c r="G8" t="n">
-        <v>695</v>
+        <v>721</v>
       </c>
       <c r="H8" t="n">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6943235313201981</v>
+        <v>0.7180736049075029</v>
       </c>
       <c r="F9" t="n">
         <v>65</v>
       </c>
       <c r="G9" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H9" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.663243628347582</v>
+        <v>0.6551919625207234</v>
       </c>
       <c r="F10" t="n">
         <v>91</v>
       </c>
       <c r="G10" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7425256904037311</v>
+        <v>0.7505007811441857</v>
       </c>
       <c r="F11" t="n">
         <v>870</v>
       </c>
       <c r="G11" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H11" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6654603115851113</v>
+        <v>0.7344680693318216</v>
       </c>
       <c r="F12" t="n">
         <v>65</v>
       </c>
       <c r="G12" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H12" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7103433798602959</v>
+        <v>0.7388290986186842</v>
       </c>
       <c r="F13" t="n">
         <v>91</v>
       </c>
       <c r="G13" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" t="n">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.72727157487241</v>
+        <v>0.7626730108208704</v>
       </c>
       <c r="F14" t="n">
         <v>870</v>
       </c>
       <c r="G14" t="n">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="H14" t="n">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7221969929934011</v>
+        <v>0.7910062740664701</v>
       </c>
       <c r="F15" t="n">
         <v>65</v>
       </c>
       <c r="G15" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6604143489010631</v>
+        <v>0.8043675268924322</v>
       </c>
       <c r="F16" t="n">
         <v>91</v>
       </c>
       <c r="G16" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7142565602252994</v>
+        <v>0.6837867541304564</v>
       </c>
       <c r="F17" t="n">
         <v>870</v>
       </c>
       <c r="G17" t="n">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="H17" t="n">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7296744629198498</v>
+        <v>0.8051118436527804</v>
       </c>
       <c r="F18" t="n">
         <v>65</v>
       </c>
       <c r="G18" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H18" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7221033877147438</v>
+        <v>0.7258209592771929</v>
       </c>
       <c r="F19" t="n">
         <v>91</v>
       </c>
       <c r="G19" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H19" t="n">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
